--- a/scene_cat_exp_2023.2.2_english/input_files/66_scenecat_categorization_living_rooms_1.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/66_scenecat_categorization_living_rooms_1.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -497,53 +497,53 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_iudc4.png</t>
+          <t>stimuli/img_1r08n.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>73.625</v>
+        <v>72.34285714285714</v>
       </c>
       <c r="N2">
-        <v>52.275</v>
+        <v>49</v>
       </c>
       <c r="O2">
-        <v>62.95</v>
+        <v>60.67142857142857</v>
       </c>
       <c r="P2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -589,38 +589,38 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_il020.png</t>
+          <t>stimuli/img_pey7u.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>18.85416666666667</v>
+        <v>30.34883720930232</v>
       </c>
       <c r="N3">
-        <v>16.16666666666667</v>
+        <v>20.34883720930232</v>
       </c>
       <c r="O3">
-        <v>17.51041666666667</v>
+        <v>25.34883720930232</v>
       </c>
       <c r="P3">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -666,38 +666,38 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_mdpr4.png</t>
+          <t>stimuli/img_1r2ri.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>74.04255319148936</v>
+        <v>62.44117647058823</v>
       </c>
       <c r="N4">
-        <v>54.70212765957447</v>
+        <v>40.76470588235294</v>
       </c>
       <c r="O4">
-        <v>64.37234042553192</v>
+        <v>51.60294117647059</v>
       </c>
       <c r="P4">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -743,38 +743,38 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_bj99b.png</t>
+          <t>stimuli/img_5tr4v.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>82.79069767441861</v>
+        <v>56.86046511627907</v>
       </c>
       <c r="N5">
-        <v>65.46511627906976</v>
+        <v>39.3953488372093</v>
       </c>
       <c r="O5">
-        <v>74.12790697674419</v>
+        <v>48.12790697674419</v>
       </c>
       <c r="P5">
         <v>43</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -796,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -820,38 +820,38 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_rg4in.png</t>
+          <t>stimuli/img_5nlnv.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>49.3695652173913</v>
+        <v>86.1219512195122</v>
       </c>
       <c r="N6">
-        <v>30.21739130434782</v>
+        <v>69.19512195121951</v>
       </c>
       <c r="O6">
-        <v>39.79347826086956</v>
+        <v>77.65853658536585</v>
       </c>
       <c r="P6">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -873,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -897,38 +897,38 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_1r08n.png</t>
+          <t>stimuli/img_qgbyn.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>72.34285714285714</v>
+        <v>65.08108108108108</v>
       </c>
       <c r="N7">
-        <v>49</v>
+        <v>40.10810810810811</v>
       </c>
       <c r="O7">
-        <v>60.67142857142857</v>
+        <v>52.5945945945946</v>
       </c>
       <c r="P7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -950,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -959,53 +959,53 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_gsfx4.png</t>
+          <t>stimuli/img_9oofc.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>59.94736842105263</v>
+        <v>82.47619047619048</v>
       </c>
       <c r="N8">
-        <v>33.81578947368421</v>
+        <v>65.5</v>
       </c>
       <c r="O8">
-        <v>46.88157894736842</v>
+        <v>73.98809523809524</v>
       </c>
       <c r="P8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1027,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1036,53 +1036,53 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_qgbyn.png</t>
+          <t>stimuli/img_il020.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>65.08108108108108</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="N9">
-        <v>40.10810810810811</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="O9">
-        <v>52.5945945945946</v>
+        <v>17.51041666666667</v>
       </c>
       <c r="P9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1104,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1128,38 +1128,38 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_gxm46.png</t>
+          <t>stimuli/img_2dnfy.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>74.78378378378379</v>
+        <v>59.97297297297298</v>
       </c>
       <c r="N10">
-        <v>54</v>
+        <v>37.56756756756756</v>
       </c>
       <c r="O10">
-        <v>64.3918918918919</v>
+        <v>48.77027027027027</v>
       </c>
       <c r="P10">
         <v>37</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V10">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1181,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1205,38 +1205,38 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_ccn2w.png</t>
+          <t>stimuli/img_z10c7.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>65.78723404255319</v>
+        <v>63.45945945945946</v>
       </c>
       <c r="N11">
-        <v>40.31914893617022</v>
+        <v>37.21621621621622</v>
       </c>
       <c r="O11">
-        <v>53.05319148936171</v>
+        <v>50.33783783783784</v>
       </c>
       <c r="P11">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1267,53 +1267,53 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_5tr4v.png</t>
+          <t>stimuli/img_gxm46.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>56.86046511627907</v>
+        <v>74.78378378378379</v>
       </c>
       <c r="N12">
-        <v>39.3953488372093</v>
+        <v>54</v>
       </c>
       <c r="O12">
-        <v>48.12790697674419</v>
+        <v>64.3918918918919</v>
       </c>
       <c r="P12">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V12">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1335,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1344,53 +1344,53 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_s2zoe.png</t>
+          <t>stimuli/img_x9ml4.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>64.71428571428571</v>
+        <v>58.71428571428572</v>
       </c>
       <c r="N13">
-        <v>44.90476190476191</v>
+        <v>38.46428571428572</v>
       </c>
       <c r="O13">
-        <v>54.80952380952381</v>
+        <v>48.58928571428572</v>
       </c>
       <c r="P13">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1412,7 +1412,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1436,38 +1436,38 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_3gm8h.png</t>
+          <t>stimuli/img_91lbx.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>65.07894736842105</v>
+        <v>63.97058823529412</v>
       </c>
       <c r="N14">
-        <v>43.92105263157895</v>
+        <v>38.8235294117647</v>
       </c>
       <c r="O14">
-        <v>54.5</v>
+        <v>51.39705882352941</v>
       </c>
       <c r="P14">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1489,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1498,53 +1498,53 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_ds88w.png</t>
+          <t>stimuli/img_x9w7o.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>61.425</v>
+        <v>92.38888888888889</v>
       </c>
       <c r="N15">
-        <v>38.2</v>
+        <v>72.94444444444444</v>
       </c>
       <c r="O15">
-        <v>49.8125</v>
+        <v>82.66666666666666</v>
       </c>
       <c r="P15">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V15">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1566,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1590,38 +1590,38 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_x9w7o.png</t>
+          <t>stimuli/img_qz292.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>92.38888888888889</v>
+        <v>78.26666666666667</v>
       </c>
       <c r="N16">
-        <v>72.94444444444444</v>
+        <v>59.13333333333333</v>
       </c>
       <c r="O16">
-        <v>82.66666666666666</v>
+        <v>68.7</v>
       </c>
       <c r="P16">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V16">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1652,35 +1652,35 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_1r2ri.png</t>
+          <t>stimuli/img_4o8l0.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>62.44117647058823</v>
+        <v>46.02173913043478</v>
       </c>
       <c r="N17">
-        <v>40.76470588235294</v>
+        <v>31.45652173913043</v>
       </c>
       <c r="O17">
-        <v>51.60294117647059</v>
+        <v>38.73913043478261</v>
       </c>
       <c r="P17">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -1720,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1729,53 +1729,53 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_pey7u.png</t>
+          <t>stimuli/img_k0ze7.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>30.34883720930232</v>
+        <v>58.82142857142857</v>
       </c>
       <c r="N18">
-        <v>20.34883720930232</v>
+        <v>37.46428571428572</v>
       </c>
       <c r="O18">
-        <v>25.34883720930232</v>
+        <v>48.14285714285714</v>
       </c>
       <c r="P18">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1806,53 +1806,53 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_196rk.png</t>
+          <t>stimuli/img_mdpr4.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>86.53488372093024</v>
+        <v>74.04255319148936</v>
       </c>
       <c r="N19">
-        <v>69.46511627906976</v>
+        <v>54.70212765957447</v>
       </c>
       <c r="O19">
-        <v>78</v>
+        <v>64.37234042553192</v>
       </c>
       <c r="P19">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V19">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1874,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1898,38 +1898,38 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_k0ze7.png</t>
+          <t>stimuli/img_3gm8h.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>58.82142857142857</v>
+        <v>65.07894736842105</v>
       </c>
       <c r="N20">
-        <v>37.46428571428572</v>
+        <v>43.92105263157895</v>
       </c>
       <c r="O20">
-        <v>48.14285714285714</v>
+        <v>54.5</v>
       </c>
       <c r="P20">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1951,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1975,38 +1975,38 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_lzz3x.png</t>
+          <t>stimuli/img_s2zoe.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>18.46341463414634</v>
+        <v>64.71428571428571</v>
       </c>
       <c r="N21">
-        <v>11.92682926829268</v>
+        <v>44.90476190476191</v>
       </c>
       <c r="O21">
-        <v>15.19512195121951</v>
+        <v>54.80952380952381</v>
       </c>
       <c r="P21">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2028,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2052,20 +2052,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_jr212.png</t>
+          <t>stimuli/img_49h18.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>59.48571428571429</v>
+        <v>59.28947368421053</v>
       </c>
       <c r="N22">
-        <v>39.08571428571429</v>
+        <v>32.8421052631579</v>
       </c>
       <c r="O22">
-        <v>49.28571428571429</v>
+        <v>46.06578947368421</v>
       </c>
       <c r="P22">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -2105,7 +2105,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2129,38 +2129,38 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_eiu3c.png</t>
+          <t>stimuli/img_jpjeg.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>65.15909090909091</v>
+        <v>90.90697674418605</v>
       </c>
       <c r="N23">
-        <v>46.22727272727273</v>
+        <v>74.3953488372093</v>
       </c>
       <c r="O23">
-        <v>55.69318181818181</v>
+        <v>82.65116279069767</v>
       </c>
       <c r="P23">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V23">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2182,7 +2182,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2191,53 +2191,53 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_37hgm.png</t>
+          <t>stimuli/img_ccn2w.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>70.95454545454545</v>
+        <v>65.78723404255319</v>
       </c>
       <c r="N24">
-        <v>54.77272727272727</v>
+        <v>40.31914893617022</v>
       </c>
       <c r="O24">
-        <v>62.86363636363636</v>
+        <v>53.05319148936171</v>
       </c>
       <c r="P24">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V24">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2259,7 +2259,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2268,53 +2268,53 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_9mcah.png</t>
+          <t>stimuli/img_rru0v.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>59.59375</v>
+        <v>56.45238095238095</v>
       </c>
       <c r="N25">
-        <v>36.75</v>
+        <v>39.42857142857143</v>
       </c>
       <c r="O25">
-        <v>48.171875</v>
+        <v>47.94047619047619</v>
       </c>
       <c r="P25">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -2336,7 +2336,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2360,38 +2360,38 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_tbs4n.png</t>
+          <t>stimuli/img_iudc4.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>78.95744680851064</v>
+        <v>73.625</v>
       </c>
       <c r="N26">
-        <v>58.97872340425532</v>
+        <v>52.275</v>
       </c>
       <c r="O26">
-        <v>68.96808510638297</v>
+        <v>62.95</v>
       </c>
       <c r="P26">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2413,7 +2413,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2437,38 +2437,38 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_4o8l0.png</t>
+          <t>stimuli/img_bbs77.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>46.02173913043478</v>
+        <v>31.64444444444445</v>
       </c>
       <c r="N27">
-        <v>31.45652173913043</v>
+        <v>21.26666666666667</v>
       </c>
       <c r="O27">
-        <v>38.73913043478261</v>
+        <v>26.45555555555556</v>
       </c>
       <c r="P27">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2490,7 +2490,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2514,38 +2514,38 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_jpjeg.png</t>
+          <t>stimuli/img_lzz3x.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>90.90697674418605</v>
+        <v>18.46341463414634</v>
       </c>
       <c r="N28">
-        <v>74.3953488372093</v>
+        <v>11.92682926829268</v>
       </c>
       <c r="O28">
-        <v>82.65116279069767</v>
+        <v>15.19512195121951</v>
       </c>
       <c r="P28">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2567,7 +2567,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2576,53 +2576,53 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_x9ml4.png</t>
+          <t>stimuli/img_196rk.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>58.71428571428572</v>
+        <v>86.53488372093024</v>
       </c>
       <c r="N29">
-        <v>38.46428571428572</v>
+        <v>69.46511627906976</v>
       </c>
       <c r="O29">
-        <v>48.58928571428572</v>
+        <v>78</v>
       </c>
       <c r="P29">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V29">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -2644,7 +2644,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2653,53 +2653,53 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_bbs77.png</t>
+          <t>stimuli/img_9mcah.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>31.64444444444445</v>
+        <v>59.59375</v>
       </c>
       <c r="N30">
-        <v>21.26666666666667</v>
+        <v>36.75</v>
       </c>
       <c r="O30">
-        <v>26.45555555555556</v>
+        <v>48.171875</v>
       </c>
       <c r="P30">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2721,7 +2721,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2745,38 +2745,38 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_rru0v.png</t>
+          <t>stimuli/img_37hgm.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>56.45238095238095</v>
+        <v>70.95454545454545</v>
       </c>
       <c r="N31">
-        <v>39.42857142857143</v>
+        <v>54.77272727272727</v>
       </c>
       <c r="O31">
-        <v>47.94047619047619</v>
+        <v>62.86363636363636</v>
       </c>
       <c r="P31">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V31">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -2798,7 +2798,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2807,53 +2807,53 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_91lbx.png</t>
+          <t>stimuli/img_tbs4n.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>63.97058823529412</v>
+        <v>78.95744680851064</v>
       </c>
       <c r="N32">
-        <v>38.8235294117647</v>
+        <v>58.97872340425532</v>
       </c>
       <c r="O32">
-        <v>51.39705882352941</v>
+        <v>68.96808510638297</v>
       </c>
       <c r="P32">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V32">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -2875,7 +2875,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2899,38 +2899,38 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_5nlnv.png</t>
+          <t>stimuli/img_rg4in.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>86.1219512195122</v>
+        <v>49.3695652173913</v>
       </c>
       <c r="N33">
-        <v>69.19512195121951</v>
+        <v>30.21739130434782</v>
       </c>
       <c r="O33">
-        <v>77.65853658536585</v>
+        <v>39.79347826086956</v>
       </c>
       <c r="P33">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V33">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -2952,7 +2952,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2976,20 +2976,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_di49w.png</t>
+          <t>stimuli/img_2b8fp.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>73.03125</v>
+        <v>73.89189189189189</v>
       </c>
       <c r="N34">
-        <v>52.25</v>
+        <v>51.45945945945946</v>
       </c>
       <c r="O34">
-        <v>62.640625</v>
+        <v>62.67567567567568</v>
       </c>
       <c r="P34">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -3029,7 +3029,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3053,38 +3053,38 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_49h18.png</t>
+          <t>stimuli/img_die1d.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>59.28947368421053</v>
+        <v>75.42857142857143</v>
       </c>
       <c r="N35">
-        <v>32.8421052631579</v>
+        <v>53.30952380952381</v>
       </c>
       <c r="O35">
-        <v>46.06578947368421</v>
+        <v>64.36904761904762</v>
       </c>
       <c r="P35">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V35">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -3106,7 +3106,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3115,53 +3115,53 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_2b8fp.png</t>
+          <t>stimuli/img_eiu3c.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>73.89189189189189</v>
+        <v>65.15909090909091</v>
       </c>
       <c r="N36">
-        <v>51.45945945945946</v>
+        <v>46.22727272727273</v>
       </c>
       <c r="O36">
-        <v>62.67567567567568</v>
+        <v>55.69318181818181</v>
       </c>
       <c r="P36">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V36">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -3183,7 +3183,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3207,20 +3207,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_z10c7.png</t>
+          <t>stimuli/img_jr212.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>63.45945945945946</v>
+        <v>59.48571428571429</v>
       </c>
       <c r="N37">
-        <v>37.21621621621622</v>
+        <v>39.08571428571429</v>
       </c>
       <c r="O37">
-        <v>50.33783783783784</v>
+        <v>49.28571428571429</v>
       </c>
       <c r="P37">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -3260,7 +3260,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3269,53 +3269,53 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_9oofc.png</t>
+          <t>stimuli/img_di49w.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>82.47619047619048</v>
+        <v>73.03125</v>
       </c>
       <c r="N38">
-        <v>65.5</v>
+        <v>52.25</v>
       </c>
       <c r="O38">
-        <v>73.98809523809524</v>
+        <v>62.640625</v>
       </c>
       <c r="P38">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V38">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -3337,7 +3337,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3346,53 +3346,53 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_qz292.png</t>
+          <t>stimuli/img_ds88w.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>78.26666666666667</v>
+        <v>61.425</v>
       </c>
       <c r="N39">
-        <v>59.13333333333333</v>
+        <v>38.2</v>
       </c>
       <c r="O39">
-        <v>68.7</v>
+        <v>49.8125</v>
       </c>
       <c r="P39">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V39">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -3414,7 +3414,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3438,20 +3438,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_2dnfy.png</t>
+          <t>stimuli/img_gsfx4.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>59.97297297297298</v>
+        <v>59.94736842105263</v>
       </c>
       <c r="N40">
-        <v>37.56756756756756</v>
+        <v>33.81578947368421</v>
       </c>
       <c r="O40">
-        <v>48.77027027027027</v>
+        <v>46.88157894736842</v>
       </c>
       <c r="P40">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -3491,7 +3491,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3500,53 +3500,53 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_die1d.png</t>
+          <t>stimuli/img_bj99b.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>75.42857142857143</v>
+        <v>82.79069767441861</v>
       </c>
       <c r="N41">
-        <v>53.30952380952381</v>
+        <v>65.46511627906976</v>
       </c>
       <c r="O41">
-        <v>64.36904761904762</v>
+        <v>74.12790697674419</v>
       </c>
       <c r="P41">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V41">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
